--- a/data/trans_bre/P5_2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5_2-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>-3,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-18,79%</t>
+          <t>-18,16%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-22,78%</t>
+          <t>-14,95%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 2,6</t>
+          <t>-13,1; 7,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,41; 3,74</t>
+          <t>-11,77; 7,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-45,93; 23,19</t>
+          <t>-58,03; 69,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-59,35; 36,41</t>
+          <t>-53,75; 64,26</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>-4,87</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,75</t>
+          <t>-5,28</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-14,35%</t>
+          <t>-27,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,57%</t>
+          <t>-26,72%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 1,26</t>
+          <t>-10,53; 1,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 2,54</t>
+          <t>-11,07; 0,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-34,0; 9,8</t>
+          <t>-49,32; 13,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,59; 18,39</t>
+          <t>-47,4; 2,84</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>-6,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,55</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-14,63%</t>
+          <t>-36,42%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-24,39%</t>
+          <t>-31,4%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 2,44</t>
+          <t>-13,71; 0,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 1,08</t>
+          <t>-13,37; -0,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-40,82; 18,42</t>
+          <t>-61,14; 6,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-47,68; 7,71</t>
+          <t>-53,01; 0,54</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-15,68%</t>
+          <t>-5,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-17,99%</t>
+          <t>7,06%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 0,07</t>
+          <t>-4,31; 2,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 0,25</t>
+          <t>-3,4; 5,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-30,32; 0,52</t>
+          <t>-25,37; 19,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,27; 1,74</t>
+          <t>-23,41; 48,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-2,5</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-2,58</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-15,75%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-15,7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-5,4; 0,07</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-5,53; 0,36</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-30,93; 0,56</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-30,33; 2,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P5_2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5_2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-3,12</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,57</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-18,16%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-14,95%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-3.120900560039791</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-3.559515055457405</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.1815619563262226</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.1932834238465563</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-13,1; 7,8</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-11,77; 7,63</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-58,03; 69,42</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-53,75; 64,26</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-13.10093074837003</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-13.83942879106707</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.5803476282322315</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.5636696969855653</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7.797181968284995</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.369655915182312</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.6941937922285656</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.5145664999134334</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-4,87</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-5,28</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-27,33%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-26,72%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-10,53; 1,87</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-11,07; 0,46</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-49,32; 13,83</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-47,4; 2,84</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-4.873895968871148</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-4.185504840114598</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.2732537448686537</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.2205996449588058</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-6,55</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-6,3</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-36,42%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-31,4%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-10.52591935253572</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-9.873163381024199</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.4932434253756648</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.4447886901785341</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-13,71; 0,67</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-13,37; -0,12</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-61,14; 6,72</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-53,01; 0,54</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.871620363932599</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.57286164931808</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.1382737829664765</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.09378621111953916</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +716,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,75</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-5,12%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,06%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-6.547606354747805</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-5.973509940169899</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.3641797795326343</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.3049751180826799</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-4,31; 2,54</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,4; 5,14</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-25,37; 19,68</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-23,41; 48,33</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.71392953262068</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-13.15704591775524</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.6113585091667973</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.5289743168264591</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.6676704068200181</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.2764587021697529</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.0672057997431527</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.04730916415818929</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-2,5</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,58</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-15,75%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-15,7%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-5,4; 0,07</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-5,53; 0,36</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-30,93; 0,56</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-30,33; 2,44</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-5.160515308074213</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-4.716058140896745</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.2903202005409632</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.2468371084646179</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-9.232618544942385</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-9.148024349236682</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.4614954090858426</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.4178226434342215</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-0.8983571278498281</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-0.9845295182400833</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>-0.05984103543323554</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>-0.05044880537349652</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
